--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C3-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,55 +534,55 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H2">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J2">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N2">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P2">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q2">
-        <v>19.98692197329287</v>
+        <v>0.03534621442044444</v>
       </c>
       <c r="R2">
-        <v>19.98692197329287</v>
+        <v>0.318115929784</v>
       </c>
       <c r="S2">
-        <v>0.0002182462107100315</v>
+        <v>3.176793120059577E-07</v>
       </c>
       <c r="T2">
-        <v>0.0002182462107100315</v>
+        <v>3.176793120059577E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H3">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J3">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N3">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P3">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q3">
-        <v>19.34343902773137</v>
+        <v>87.93924022363643</v>
       </c>
       <c r="R3">
-        <v>19.34343902773137</v>
+        <v>791.4531620127279</v>
       </c>
       <c r="S3">
-        <v>0.0002112197303588806</v>
+        <v>0.000790366883431026</v>
       </c>
       <c r="T3">
-        <v>0.0002112197303588806</v>
+        <v>0.0007903668834310258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.196284554607325</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H4">
-        <v>0.196284554607325</v>
+        <v>1.887122</v>
       </c>
       <c r="I4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J4">
-        <v>0.0008227885447038991</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N4">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P4">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q4">
-        <v>36.02036508954401</v>
+        <v>62.71174062803667</v>
       </c>
       <c r="R4">
-        <v>36.02036508954401</v>
+        <v>564.40566565233</v>
       </c>
       <c r="S4">
-        <v>0.000393322603634987</v>
+        <v>0.0005636310123747687</v>
       </c>
       <c r="T4">
-        <v>0.000393322603634987</v>
+        <v>0.0005636310123747687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.0008696479444</v>
+        <v>0.6290406666666667</v>
       </c>
       <c r="H5">
-        <v>80.0008696479444</v>
+        <v>1.887122</v>
       </c>
       <c r="I5">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="J5">
-        <v>0.3353488472099174</v>
+        <v>0.002417816460522424</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N5">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P5">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q5">
-        <v>8146.189304847971</v>
+        <v>118.32917319822</v>
       </c>
       <c r="R5">
-        <v>8146.189304847971</v>
+        <v>1064.96255878398</v>
       </c>
       <c r="S5">
-        <v>0.08895191315027423</v>
+        <v>0.001063500885404624</v>
       </c>
       <c r="T5">
-        <v>0.08895191315027423</v>
+        <v>0.001063500885404623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H6">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I6">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J6">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N6">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P6">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q6">
-        <v>7883.921112877762</v>
+        <v>4.657015268026222</v>
       </c>
       <c r="R6">
-        <v>7883.921112877762</v>
+        <v>41.913137412236</v>
       </c>
       <c r="S6">
-        <v>0.08608808853717205</v>
+        <v>4.185561114833548E-05</v>
       </c>
       <c r="T6">
-        <v>0.08608808853717205</v>
+        <v>4.185561114833548E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0008696479444</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H7">
-        <v>80.0008696479444</v>
+        <v>248.636413</v>
       </c>
       <c r="I7">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J7">
-        <v>0.3353488472099174</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>183.51095001644</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N7">
-        <v>183.51095001644</v>
+        <v>419.396924</v>
       </c>
       <c r="O7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P7">
-        <v>0.4780360715602013</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q7">
-        <v>14681.03559123566</v>
+        <v>11586.37186739929</v>
       </c>
       <c r="R7">
-        <v>14681.03559123566</v>
+        <v>104277.3468065936</v>
       </c>
       <c r="S7">
-        <v>0.1603088455224711</v>
+        <v>0.1041342249469189</v>
       </c>
       <c r="T7">
-        <v>0.1603088455224711</v>
+        <v>0.1041342249469189</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H8">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I8">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J8">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.826259398135</v>
+        <v>99.694255</v>
       </c>
       <c r="N8">
-        <v>101.826259398135</v>
+        <v>299.082765</v>
       </c>
       <c r="O8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P8">
-        <v>0.2652518828985068</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q8">
-        <v>2821.186692381501</v>
+        <v>8262.540653302438</v>
       </c>
       <c r="R8">
-        <v>2821.186692381501</v>
+        <v>74362.86587972194</v>
       </c>
       <c r="S8">
-        <v>0.0308058092256809</v>
+        <v>0.07426080198970768</v>
       </c>
       <c r="T8">
-        <v>0.0308058092256809</v>
+        <v>0.07426080198970768</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>27.7058855844917</v>
+        <v>82.87880433333333</v>
       </c>
       <c r="H9">
-        <v>27.7058855844917</v>
+        <v>248.636413</v>
       </c>
       <c r="I9">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="J9">
-        <v>0.1161379474070241</v>
+        <v>0.3185576830944961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>98.5479426357753</v>
+        <v>188.11053</v>
       </c>
       <c r="N9">
-        <v>98.5479426357753</v>
+        <v>564.33159</v>
       </c>
       <c r="O9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P9">
-        <v>0.2567120455412919</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q9">
-        <v>2730.358023253842</v>
+        <v>15590.37580890963</v>
       </c>
       <c r="R9">
-        <v>2730.358023253842</v>
+        <v>140313.3822801867</v>
       </c>
       <c r="S9">
-        <v>0.02981401004382414</v>
+        <v>0.1401208005467212</v>
       </c>
       <c r="T9">
-        <v>0.02981401004382414</v>
+        <v>0.1401208005467212</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,60 +1030,60 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>27.7058855844917</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H10">
-        <v>27.7058855844917</v>
+        <v>123.061588</v>
       </c>
       <c r="I10">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J10">
-        <v>0.1161379474070241</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>183.51095001644</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N10">
-        <v>183.51095001644</v>
+        <v>0.168572</v>
       </c>
       <c r="O10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P10">
-        <v>0.4780360715602013</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q10">
-        <v>5084.333384656862</v>
+        <v>2.304970890259556</v>
       </c>
       <c r="R10">
-        <v>5084.333384656862</v>
+        <v>20.744738012336</v>
       </c>
       <c r="S10">
-        <v>0.05551812813751908</v>
+        <v>2.071626562045306E-05</v>
       </c>
       <c r="T10">
-        <v>0.05551812813751908</v>
+        <v>2.071626562045306E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1095,57 +1095,57 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H11">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I11">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J11">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.826259398135</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N11">
-        <v>101.826259398135</v>
+        <v>419.396924</v>
       </c>
       <c r="O11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P11">
-        <v>0.2652518828985068</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q11">
-        <v>3065.587332859597</v>
+        <v>5734.627941083923</v>
       </c>
       <c r="R11">
-        <v>3065.587332859597</v>
+        <v>51611.65146975531</v>
       </c>
       <c r="S11">
-        <v>0.03347452998972466</v>
+        <v>0.05154081388359256</v>
       </c>
       <c r="T11">
-        <v>0.03347452998972466</v>
+        <v>0.05154081388359255</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H12">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I12">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J12">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>98.5479426357753</v>
+        <v>99.694255</v>
       </c>
       <c r="N12">
-        <v>98.5479426357753</v>
+        <v>299.082765</v>
       </c>
       <c r="O12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P12">
-        <v>0.2567120455412919</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q12">
-        <v>2966.890136289738</v>
+        <v>4089.511111592314</v>
       </c>
       <c r="R12">
-        <v>2966.890136289738</v>
+        <v>36805.60000433082</v>
       </c>
       <c r="S12">
-        <v>0.03239681080976</v>
+        <v>0.03675508389435696</v>
       </c>
       <c r="T12">
-        <v>0.03239681080976</v>
+        <v>0.03675508389435696</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.1060586039336</v>
+        <v>41.02052933333334</v>
       </c>
       <c r="H13">
-        <v>30.1060586039336</v>
+        <v>123.061588</v>
       </c>
       <c r="I13">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="J13">
-        <v>0.1261990287267179</v>
+        <v>0.1576688381166818</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>183.51095001644</v>
+        <v>188.11053</v>
       </c>
       <c r="N13">
-        <v>183.51095001644</v>
+        <v>564.33159</v>
       </c>
       <c r="O13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P13">
-        <v>0.4780360715602013</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q13">
-        <v>5524.791415658473</v>
+        <v>7716.393513773881</v>
       </c>
       <c r="R13">
-        <v>5524.791415658473</v>
+        <v>69447.54162396492</v>
       </c>
       <c r="S13">
-        <v>0.0603276879272332</v>
+        <v>0.06935222407311187</v>
       </c>
       <c r="T13">
-        <v>0.0603276879272332</v>
+        <v>0.06935222407311185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.160602978402</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H14">
-        <v>100.160602978402</v>
+        <v>90.484706</v>
       </c>
       <c r="I14">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J14">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>101.826259398135</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N14">
-        <v>101.826259398135</v>
+        <v>0.168572</v>
       </c>
       <c r="O14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P14">
-        <v>0.2652518828985068</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q14">
-        <v>10198.97954035237</v>
+        <v>1.694798651092444</v>
       </c>
       <c r="R14">
-        <v>10198.97954035237</v>
+        <v>15.253187859832</v>
       </c>
       <c r="S14">
-        <v>0.1113672550863682</v>
+        <v>1.523225268379117E-05</v>
       </c>
       <c r="T14">
-        <v>0.1113672550863682</v>
+        <v>1.523225268379117E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.160602978402</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H15">
-        <v>100.160602978402</v>
+        <v>90.484706</v>
       </c>
       <c r="I15">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J15">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>98.5479426357753</v>
+        <v>139.7989746666667</v>
       </c>
       <c r="N15">
-        <v>98.5479426357753</v>
+        <v>419.396924</v>
       </c>
       <c r="O15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="P15">
-        <v>0.2567120455412919</v>
+        <v>0.3268928375399716</v>
       </c>
       <c r="Q15">
-        <v>9870.621356680225</v>
+        <v>4216.556373938261</v>
       </c>
       <c r="R15">
-        <v>9870.621356680225</v>
+        <v>37949.00736544434</v>
       </c>
       <c r="S15">
-        <v>0.1077817640618956</v>
+        <v>0.03789692191569632</v>
       </c>
       <c r="T15">
-        <v>0.1077817640618956</v>
+        <v>0.03789692191569631</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.160602978402</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H16">
-        <v>100.160602978402</v>
+        <v>90.484706</v>
       </c>
       <c r="I16">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J16">
-        <v>0.4198547202357866</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>183.51095001644</v>
+        <v>99.694255</v>
       </c>
       <c r="N16">
-        <v>183.51095001644</v>
+        <v>299.082765</v>
       </c>
       <c r="O16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="P16">
-        <v>0.4780360715602013</v>
+        <v>0.2331157147689298</v>
       </c>
       <c r="Q16">
-        <v>18380.56740678602</v>
+        <v>3006.935117854677</v>
       </c>
       <c r="R16">
-        <v>18380.56740678602</v>
+        <v>27062.41606069209</v>
       </c>
       <c r="S16">
-        <v>0.2007057010875228</v>
+        <v>0.02702527258291372</v>
       </c>
       <c r="T16">
-        <v>0.2007057010875228</v>
+        <v>0.02702527258291372</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.390443725935655</v>
+        <v>30.16156866666667</v>
       </c>
       <c r="H17">
-        <v>0.390443725935655</v>
+        <v>90.484706</v>
       </c>
       <c r="I17">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="J17">
-        <v>0.001636667875850162</v>
+        <v>0.115930719684436</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>101.826259398135</v>
+        <v>188.11053</v>
       </c>
       <c r="N17">
-        <v>101.826259398135</v>
+        <v>564.33159</v>
       </c>
       <c r="O17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="P17">
-        <v>0.2652518828985068</v>
+        <v>0.4398600566954656</v>
       </c>
       <c r="Q17">
-        <v>39.75742411749834</v>
+        <v>5673.708667518061</v>
       </c>
       <c r="R17">
-        <v>39.75742411749834</v>
+        <v>51063.37800766254</v>
       </c>
       <c r="S17">
-        <v>0.0004341292357487549</v>
+        <v>0.05099329293314214</v>
       </c>
       <c r="T17">
-        <v>0.0004341292357487549</v>
+        <v>0.05099329293314213</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.390443725935655</v>
+        <v>105.0835686666667</v>
       </c>
       <c r="H18">
-        <v>0.390443725935655</v>
+        <v>315.250706</v>
       </c>
       <c r="I18">
-        <v>0.001636667875850162</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="J18">
-        <v>0.001636667875850162</v>
+        <v>0.403905177385519</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>98.5479426357753</v>
+        <v>0.05619066666666667</v>
       </c>
       <c r="N18">
-        <v>98.5479426357753</v>
+        <v>0.168572</v>
       </c>
       <c r="O18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="P18">
-        <v>0.2567120455412919</v>
+        <v>0.0001313909956330249</v>
       </c>
       <c r="Q18">
-        <v>38.4774259060053</v>
+        <v>5.904715779092444</v>
       </c>
       <c r="R18">
-        <v>38.4774259060053</v>
+        <v>53.142442011832</v>
       </c>
       <c r="S18">
-        <v>0.0004201523582812161</v>
+        <v>5.306950339801688E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004201523582812161</v>
+        <v>5.306950339801688E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H19">
+        <v>315.250706</v>
+      </c>
+      <c r="I19">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J19">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N19">
+        <v>419.396924</v>
+      </c>
+      <c r="O19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P19">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q19">
+        <v>14690.57515391426</v>
+      </c>
+      <c r="R19">
+        <v>132215.1763852283</v>
+      </c>
+      <c r="S19">
+        <v>0.1320337095326379</v>
+      </c>
+      <c r="T19">
+        <v>0.1320337095326378</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H20">
+        <v>315.250706</v>
+      </c>
+      <c r="I20">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J20">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>99.694255</v>
+      </c>
+      <c r="N20">
+        <v>299.082765</v>
+      </c>
+      <c r="O20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P20">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q20">
+        <v>10476.22809096468</v>
+      </c>
+      <c r="R20">
+        <v>94286.05281868209</v>
+      </c>
+      <c r="S20">
+        <v>0.09415664412509661</v>
+      </c>
+      <c r="T20">
+        <v>0.09415664412509661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>105.0835686666667</v>
+      </c>
+      <c r="H21">
+        <v>315.250706</v>
+      </c>
+      <c r="I21">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="J21">
+        <v>0.403905177385519</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>188.11053</v>
+      </c>
+      <c r="N21">
+        <v>564.33159</v>
+      </c>
+      <c r="O21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P21">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q21">
+        <v>19767.32579617806</v>
+      </c>
+      <c r="R21">
+        <v>177905.9321656025</v>
+      </c>
+      <c r="S21">
+        <v>0.1776617542243865</v>
+      </c>
+      <c r="T21">
+        <v>0.1776617542243865</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H22">
+        <v>1.186187</v>
+      </c>
+      <c r="I22">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J22">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.05619066666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.168572</v>
+      </c>
+      <c r="O22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="P22">
+        <v>0.0001313909956330249</v>
+      </c>
+      <c r="Q22">
+        <v>0.02221754610711111</v>
+      </c>
+      <c r="R22">
+        <v>0.199957914964</v>
+      </c>
+      <c r="S22">
+        <v>1.996834704223738E-07</v>
+      </c>
+      <c r="T22">
+        <v>1.996834704223738E-07</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H23">
+        <v>1.186187</v>
+      </c>
+      <c r="I23">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J23">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>139.7989746666667</v>
+      </c>
+      <c r="N23">
+        <v>419.396924</v>
+      </c>
+      <c r="O23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="P23">
+        <v>0.3268928375399716</v>
+      </c>
+      <c r="Q23">
+        <v>55.2759087876431</v>
+      </c>
+      <c r="R23">
+        <v>497.4831790887879</v>
+      </c>
+      <c r="S23">
+        <v>0.0004968003776949229</v>
+      </c>
+      <c r="T23">
+        <v>0.0004968003776949229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H24">
+        <v>1.186187</v>
+      </c>
+      <c r="I24">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J24">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>99.694255</v>
+      </c>
+      <c r="N24">
+        <v>299.082765</v>
+      </c>
+      <c r="O24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="P24">
+        <v>0.2331157147689298</v>
+      </c>
+      <c r="Q24">
+        <v>39.41867641856167</v>
+      </c>
+      <c r="R24">
+        <v>354.768087767055</v>
+      </c>
+      <c r="S24">
+        <v>0.0003542811644799805</v>
+      </c>
+      <c r="T24">
+        <v>0.0003542811644799805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="H19">
-        <v>0.390443725935655</v>
-      </c>
-      <c r="I19">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="J19">
-        <v>0.001636667875850162</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="N19">
-        <v>183.51095001644</v>
-      </c>
-      <c r="O19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="P19">
-        <v>0.4780360715602013</v>
-      </c>
-      <c r="Q19">
-        <v>71.65069907441058</v>
-      </c>
-      <c r="R19">
-        <v>71.65069907441058</v>
-      </c>
-      <c r="S19">
-        <v>0.0007823862818201905</v>
-      </c>
-      <c r="T19">
-        <v>0.0007823862818201905</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3953956666666666</v>
+      </c>
+      <c r="H25">
+        <v>1.186187</v>
+      </c>
+      <c r="I25">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="J25">
+        <v>0.001519765258344565</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>188.11053</v>
+      </c>
+      <c r="N25">
+        <v>564.33159</v>
+      </c>
+      <c r="O25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="P25">
+        <v>0.4398600566954656</v>
+      </c>
+      <c r="Q25">
+        <v>74.37808841637001</v>
+      </c>
+      <c r="R25">
+        <v>669.4027957473299</v>
+      </c>
+      <c r="S25">
+        <v>0.0006684840326992394</v>
+      </c>
+      <c r="T25">
+        <v>0.0006684840326992394</v>
       </c>
     </row>
   </sheetData>
